--- a/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
+++ b/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/behavior_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6C855-D3DF-6543-889F-9DADF20A5315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3B24EE-4404-874B-8DE0-495B506D132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="760" windowWidth="13940" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17940" yWindow="1140" windowWidth="13940" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -48,6 +48,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,7 +305,7 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -628,16 +636,46 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1">
+        <v>2889</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23254</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D24" s="2">
+        <v>275.00900000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1">
+        <v>2889</v>
+      </c>
+      <c r="B25" s="2">
+        <v>23138</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <v>261.89699999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1">
+        <v>2889</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23250</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>241.40700000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>

--- a/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
+++ b/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/behavior_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3B24EE-4404-874B-8DE0-495B506D132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAFD0F2-2CDD-B44E-A4BA-800B5CCD97D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17940" yWindow="1140" windowWidth="13940" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,7 +305,7 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
+++ b/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
@@ -114,8 +114,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -140,493 +144,480 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D998"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F35:F36"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>2980</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>22993</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.529</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.00268118055555556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1147</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>13128</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.833</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.00383146990740741</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>1084</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>13130</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.733</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.0038206712962963</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>1150</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>13132</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.862</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.00375996527777778</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>1143</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>13134</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.625</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.00378802083333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>1144</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>13138</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.873</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.00393351851851852</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>1142</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>13140</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.00402252314814815</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>1208</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>13144</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>1.11</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.00376979166666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>1120</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>13146</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>1.139</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.00324131944444444</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>1137</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>13150</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>1.189</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.00230600694444444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>1130</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>13152</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.899</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>0.00227760416666667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>1123</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>13184</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.979</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>0.00223400462962963</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>1125</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>13186</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>1.067</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>0.00225721064814815</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>1128</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>13188</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>6.266</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.00226415509259259</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>1127</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>13496</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>0.00227984953703704</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>2979</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>22995</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>0.984</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>0.00257038194444444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>2885</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>23137</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>0.934</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>0.00273631944444444</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>2893</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>23245</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>0.464</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>0.00235729166666667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>2982</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>23248</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>1.087</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>0.00286803240740741</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>2889</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>23254</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>1.277</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.0031825462962963</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>2886</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>23257</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.467</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.00236128472222222</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>2981</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>23347</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>1.196</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>0.00274011574074074</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>2889</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>23254</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.822</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>275.009</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>2889</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>23138</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>0.903</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>261.897</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>2889</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>23250</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>0.033</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>241.407</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>2893</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>23139</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>0.028</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>246.22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>2893</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>23001</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>0.028</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>229.03</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>2886</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>23345</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>0.027</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>271.08</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>2886</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>23378</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>237.976</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>2981</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>23256</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>0.746</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>211.698</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>2981</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>23376</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>0.812</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>231.734</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>2893</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>23139</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>246.537</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>2893</v>
-      </c>
-      <c r="B34" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>23001</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>229.112</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1566,7 +1557,7 @@
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
+++ b/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
@@ -147,7 +147,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -604,18 +604,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>2893</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>23001</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>229.112</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
+++ b/behavior_analysis/USV_Audio_Video_OFFSET.xlsx
@@ -144,10 +144,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,27 +524,27 @@
         <v>2893</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>23139</v>
+        <v>23001</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.028</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>246.22</v>
+        <v>229.03</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>2893</v>
+        <v>2886</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>23001</v>
+        <v>23345</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>229.03</v>
+        <v>271.08</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -552,27 +552,27 @@
         <v>2886</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>23345</v>
+        <v>23378</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.027</v>
+        <v>0.95</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>271.08</v>
+        <v>237.976</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>2886</v>
+        <v>2981</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>23378</v>
+        <v>23256</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.95</v>
+        <v>0.746</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>237.976</v>
+        <v>211.698</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -580,34 +580,28 @@
         <v>2981</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>23256</v>
+        <v>23376</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.746</v>
+        <v>0.812</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>211.698</v>
+        <v>231.734</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>2981</v>
+        <v>2893</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>23376</v>
+        <v>23139</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.812</v>
+        <v>0.775</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>231.734</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>246.537</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
